--- a/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +424,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
@@ -432,14 +432,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -543,27 +543,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -573,7 +573,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -583,7 +583,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -593,7 +593,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,17 +613,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -633,17 +633,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +653,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +663,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,10 +673,80 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
+++ b/report_ca_nhan/NV-27 Cô Siêng giúp Việc 7-2024.xlsx
@@ -443,7 +443,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-3500000</v>
       </c>
     </row>
     <row r="28">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-3500000</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-3500000</v>
       </c>
     </row>
   </sheetData>
